--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaf2dc046489a30/Documents/2. Courses/PSY310/Experiments/T6 Intentional Binding/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEAF1BE4-91AD-4385-8FA2-B209935A044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{BEAF1BE4-91AD-4385-8FA2-B209935A044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{005827A3-8A2F-487F-A824-60BDDBBDF3F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A656F675-5FB3-4B60-AB0B-BC9D0016C887}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A656F675-5FB3-4B60-AB0B-BC9D0016C887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="19">
   <si>
     <t>delay</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>unexp.s-exp.s</t>
+  </si>
+  <si>
+    <t>unexp.m-exp.m</t>
+  </si>
+  <si>
+    <t>unexp.l-unexp.l</t>
   </si>
 </sst>
 </file>
@@ -379,7 +391,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -449,10 +461,7 @@
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1370,6 +1379,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1667,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E105D8-19B2-4ABF-AACF-FE1DFF0CB525}">
-  <dimension ref="A1:K409"/>
+  <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="126" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,9 +1691,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1693,6 +1707,9 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
       <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1703,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0.1</v>
       </c>
@@ -1732,11 +1749,18 @@
         <v>114.16901109558911</v>
       </c>
       <c r="K2" s="15">
-        <f>J2/I2</f>
+        <f t="shared" ref="K2:K7" si="0">J2/I2</f>
         <v>1.1193040303489128</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3">
+        <f>G5-G2</f>
+        <v>292.84313725490199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
@@ -1765,11 +1789,18 @@
         <v>166.89988768777584</v>
       </c>
       <c r="K3" s="15">
-        <f>J3/I3</f>
+        <f t="shared" si="0"/>
         <v>1.6362734087036848</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5">
+        <f>G6-G3</f>
+        <v>253.02941176470591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>0.1</v>
       </c>
@@ -1798,11 +1829,18 @@
         <v>198.5120589927001</v>
       </c>
       <c r="K4" s="15">
-        <f>J4/I4</f>
+        <f t="shared" si="0"/>
         <v>1.9461966567911775</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <f>G7-G4</f>
+        <v>234.41176470588232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0.1</v>
       </c>
@@ -1831,11 +1869,11 @@
         <v>191.2850179980569</v>
       </c>
       <c r="K5" s="15">
-        <f>J5/I5</f>
+        <f t="shared" si="0"/>
         <v>5.6260299411193202</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0.1</v>
       </c>
@@ -1864,11 +1902,11 @@
         <v>191.89772091955032</v>
       </c>
       <c r="K6" s="15">
-        <f>J6/I6</f>
+        <f t="shared" si="0"/>
         <v>5.644050615280892</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>0.1</v>
       </c>
@@ -1897,11 +1935,11 @@
         <v>197.34131466612183</v>
       </c>
       <c r="K7" s="18">
-        <f>J7/I7</f>
+        <f t="shared" si="0"/>
         <v>5.8041563137094654</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>0.1</v>
       </c>
@@ -1915,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>0.1</v>
       </c>
@@ -1929,7 +1967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0.1</v>
       </c>
@@ -1943,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>0.1</v>
       </c>
@@ -1957,7 +1995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>0.1</v>
       </c>
@@ -1971,7 +2009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0.1</v>
       </c>
@@ -1985,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>0.1</v>
       </c>
@@ -1999,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0.1</v>
       </c>
@@ -2013,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>0.1</v>
       </c>
